--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="13.64453125" customWidth="true"/>
-    <col min="4" max="4" width="14.64453125" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="15.64453125" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26603943524779539</v>
+        <v>0.26892855483751477</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26087791184741915</v>
+        <v>0.11295526046108378</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0049257974800892236</v>
+        <v>-0.19715656854375554</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00023008257211774115</v>
+        <v>-0.0029555110305725316</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00099888527819077199</v>
+        <v>0.016831949170904529</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00045073676373719933</v>
+        <v>0.0068804160627636566</v>
       </c>
       <c r="H3" s="0">
-        <v>-2.5173843286937639e-05</v>
+        <v>0.002238106331374</v>
       </c>
       <c r="I3" s="0">
-        <v>0.00013077543453433814</v>
+        <v>0.018906192219394657</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-2.3261569198573806e-05</v>
+        <v>-0.00071787858653971082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33237945337545982</v>
+        <v>0.5114491829359662</v>
       </c>
       <c r="C4" s="0">
-        <v>0.077077228577059009</v>
+        <v>0.16394768541553725</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2.1888204421530279e-05</v>
+        <v>0.00061000002029408431</v>
       </c>
       <c r="F4" s="0">
-        <v>5.979446977117807e-05</v>
+        <v>0.0002011988465820333</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.3835804603761254e-06</v>
+        <v>-0.01048990809688379</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00026916456948131683</v>
+        <v>0.22111278609876595</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0065910469844812688</v>
+        <v>0.020945074396409562</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00066312911132848651</v>
+        <v>0.002167085794177348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33414860590148299</v>
+        <v>0.33147271249921606</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0035859040150683463</v>
+        <v>-0.073833175829404726</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00032367820635494158</v>
+        <v>0.012177545168242718</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00086084692722141875</v>
+        <v>-0.15656258394572245</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00072623865231148134</v>
+        <v>-0.0061390117967748629</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.00013908450446672456</v>
+        <v>-0.0091858915794224109</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0059597605446998995</v>
+        <v>0.021555375296689251</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0023713297742335993</v>
+        <v>0.032011272249642397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2472050694966218</v>
+        <v>0.028256432548483923</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.11224475320681113</v>
+        <v>-0.20797927517932896</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.004435806858492e-05</v>
+        <v>0.0016282621350707264</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00056563894766076869</v>
+        <v>-0.0049240913733429965</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1.8608048151410914e-06</v>
+        <v>-0.0086845894728944922</v>
       </c>
       <c r="I6" s="0">
-        <v>0.027892112797336905</v>
+        <v>-0.084736416405899406</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0031483513897943016</v>
+        <v>0.0014798303456630135</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.15968331110198314</v>
+        <v>0.10583447526029355</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.086992188842234613</v>
+        <v>0.22631323161650063</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0039303045523540721</v>
+        <v>0.00073343107051046974</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0013484601089339997</v>
+        <v>-0.12360441206627915</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0022642720997069214</v>
+        <v>0.004130969187833301</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00022728980681475746</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.001996966034768777</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0026168181240712185</v>
+        <v>-0.029995177096755643</v>
       </c>
     </row>
     <row r="8">
